--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>7088932</t>
+  </si>
+  <si>
+    <t>2445421</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
